--- a/tempos de execução.xlsx
+++ b/tempos de execução.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMF\Agente Fazendario\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="16275" windowHeight="8010"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
   <si>
     <t>Bubble Sort</t>
   </si>
@@ -211,6 +216,33 @@
   </si>
   <si>
     <t>0.375</t>
+  </si>
+  <si>
+    <t>2 Processadores: Intel® Xenon® CPU E5-2630 @ 2.30 GHz Memória: 96 GB SO:Windows Server 2008 R2 64-bit (Máquina Adalberto)</t>
+  </si>
+  <si>
+    <t>0.0150001049042</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.0620000362396</t>
+  </si>
+  <si>
+    <t>2.01300001144</t>
+  </si>
+  <si>
+    <t>0.919999837875</t>
+  </si>
+  <si>
+    <t>12.4490001202</t>
+  </si>
+  <si>
+    <t>5.77199983597</t>
+  </si>
+  <si>
+    <t>0.0930001735687</t>
   </si>
 </sst>
 </file>
@@ -438,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,22 +509,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -504,6 +533,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -552,7 +584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,7 +619,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -796,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,14 +845,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -951,14 +983,14 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1082,14 +1114,14 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -1118,7 +1150,7 @@
       <c r="B19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1211,26 +1243,143 @@
         <v>64</v>
       </c>
     </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+    </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="14"/>
+      <c r="A26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="11">
+        <v>400</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F26" s="7">
+        <v>10000</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="14"/>
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="14"/>
+      <c r="A30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
